--- a/需求登记表/衡和系统需求登记表.xlsx
+++ b/需求登记表/衡和系统需求登记表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="580" windowWidth="24560" windowHeight="15620"/>
+    <workbookView xWindow="160" yWindow="1440" windowWidth="24560" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="需求统计" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>补充说明</t>
   </si>
@@ -164,6 +164,11 @@
 3、需要增加已审核和未审核筛选项。过滤是否已审核
 4、没有提供描述展示和修改字段。
 5、对于商品图片和描述的修改，需要重新审核，不能直接修改而不经过审核。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货原因还是需要放在审核网络退货单界面，如果有多条退货原因，取第一条就行。
+如果是取消订单过来的退货请求，拒绝退货按钮不可用或不显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -314,8 +319,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -402,7 +411,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="39">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -420,6 +429,8 @@
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -437,6 +448,8 @@
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -879,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F465"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="142" customHeight="1" x14ac:dyDescent="0"/>
@@ -1055,9 +1068,15 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="142" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="10">
+        <v>41606</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
